--- a/小鬼去哪了/关卡.xlsx
+++ b/小鬼去哪了/关卡.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\New\小鬼去哪了\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Work\小鬼去哪了\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>每分钟关卡数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,13 +76,25 @@
   <si>
     <t>速度（或运动到边缘的时间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡主体进程设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡节奏设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体关卡设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +107,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -121,10 +140,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -452,32 +472,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G11" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H11" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I11" t="s">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J11" t="s">
         <v>12</v>
       </c>
     </row>

--- a/小鬼去哪了/关卡.xlsx
+++ b/小鬼去哪了/关卡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>每分钟关卡数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
   <si>
     <t>速度（或运动到边缘的时间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡主体进程设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>关卡节奏设计</t>
@@ -88,13 +84,253 @@
   <si>
     <t>具体关卡设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水平直线</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垂直直线</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斜向直线</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水平直线往复</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垂直直线往复</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圆形循环</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矩形循环</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正三角形循环</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>横向半弧形循环</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纵向半弧形循环</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +352,25 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,11 +395,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -438,7 +696,7 @@
     <col min="10" max="10" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -455,7 +713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -463,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -472,52 +730,98 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F22" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G22" t="s">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I22" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J22" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/小鬼去哪了/关卡.xlsx
+++ b/小鬼去哪了/关卡.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>每分钟关卡数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,7 +88,7 @@
   </si>
   <si>
     <r>
-      <t>1.</t>
+      <t>9.</t>
     </r>
     <r>
       <rPr>
@@ -106,12 +107,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>水平直线</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
+      <t>横向半弧形循环</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
     </r>
     <r>
       <rPr>
@@ -120,7 +121,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">         </t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
@@ -130,12 +131,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>垂直直线</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
+      <t>纵向半弧形循环</t>
+    </r>
+  </si>
+  <si>
+    <t>运动方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -154,12 +159,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>斜向直线</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
+      <t>水平直线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平直线</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
     </r>
     <r>
       <rPr>
@@ -178,12 +187,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>水平直线往复</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
+      <t>垂直直线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直直线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -202,12 +216,41 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>垂直直线往复</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
+      <t>斜向直线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜向直线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同向，随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向，随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
     </r>
     <r>
       <rPr>
@@ -226,21 +269,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>圆形循环</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
+      <t>水平直线往复</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -250,12 +285,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>矩形循环</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
+      <t>水平直线往复</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
     </r>
     <r>
       <rPr>
@@ -274,12 +309,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>正三角形循环</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9.</t>
+      <t>垂直直线往复</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直直线往复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
     </r>
     <r>
       <rPr>
@@ -298,12 +338,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>横向半弧形循环</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
+      <t>圆形循环</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形循环</t>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
     </r>
     <r>
       <rPr>
@@ -312,7 +356,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t xml:space="preserve">         </t>
     </r>
     <r>
       <rPr>
@@ -322,15 +366,110 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>纵向半弧形循环</t>
-    </r>
+      <t>矩形循环</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形循环</t>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正三角形循环</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正三角形循环</t>
+  </si>
+  <si>
+    <t>横向半弧形循环</t>
+  </si>
+  <si>
+    <t>纵向半弧形循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3组 15分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6组 30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每n关看一次广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5分钟看激励广告次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最少种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15分钟内展示所有种类小鬼和玩法特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5倍版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2倍版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也参考app图标，微信图标划动带，qq手势解锁，最强连一连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +511,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -395,13 +543,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,28 +837,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -712,8 +873,11 @@
         <f>60/B1</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -721,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -730,93 +894,177 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <f>B4*3</f>
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <f>B4*6</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <f>B4/B7</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <f>B16*2</f>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <f>B16/1.5</f>
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C17">
+        <f>B17*2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <f>INT(B16/2)</f>
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f>B18*2</f>
         <v>8</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" t="s">
-        <v>12</v>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="str">
+        <f>Sheet2!A1</f>
+        <v>1.         水平直线</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="str">
+        <f>Sheet2!A2</f>
+        <v>2.         垂直直线</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="str">
+        <f>Sheet2!A3</f>
+        <v>3.         斜向直线</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="str">
+        <f>Sheet2!A4</f>
+        <v>4.         水平直线往复</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="str">
+        <f>Sheet2!A5</f>
+        <v>5.         垂直直线往复</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="str">
+        <f>Sheet2!A6</f>
+        <v>6.         圆形循环</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="str">
+        <f>Sheet2!A7</f>
+        <v>7.         矩形循环</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="str">
+        <f>Sheet2!A8</f>
+        <v>8.         正三角形循环</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="str">
+        <f>Sheet2!A9</f>
+        <v>9.         横向半弧形循环</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="str">
+        <f>Sheet2!A10</f>
+        <v>10.     纵向半弧形循环</v>
       </c>
     </row>
   </sheetData>
@@ -824,4 +1072,807 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>46</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/小鬼去哪了/关卡.xlsx
+++ b/小鬼去哪了/关卡.xlsx
@@ -31,14 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单关流程总时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期每回连续玩时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预期每回连续玩关卡数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,6 +454,14 @@
   </si>
   <si>
     <t>也参考app图标，微信图标划动带，qq手势解锁，最强连一连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单关流程总时间 秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期每回连续玩时间 分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +840,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -862,24 +862,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <f>60/B1</f>
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <f>B3*B1</f>
@@ -896,19 +896,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <f>B4*3</f>
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <f>B4*6</f>
@@ -917,7 +917,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <f>B4/B7</f>
@@ -934,7 +934,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -942,12 +942,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -963,15 +963,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <f>B16/1.5</f>
@@ -996,7 +996,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <f>INT(B16/2)</f>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1095,84 +1095,84 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -1180,19 +1180,19 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -1200,19 +1200,19 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
         <v>25</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -1220,19 +1220,19 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
         <v>26</v>
-      </c>
-      <c r="J16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1240,19 +1240,19 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1260,19 +1260,19 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1280,19 +1280,19 @@
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1300,19 +1300,19 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
         <v>25</v>
-      </c>
-      <c r="K20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1320,19 +1320,19 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
         <v>26</v>
-      </c>
-      <c r="J21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1340,19 +1340,19 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1360,19 +1360,19 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1380,19 +1380,19 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1400,19 +1400,19 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
         <v>25</v>
-      </c>
-      <c r="K25" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1420,19 +1420,19 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
         <v>26</v>
-      </c>
-      <c r="J26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1440,19 +1440,19 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1460,19 +1460,19 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -1508,7 +1508,7 @@
         <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1536,7 +1536,7 @@
         <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1564,7 +1564,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -1592,7 +1592,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -1620,7 +1620,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -1648,7 +1648,7 @@
         <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">

--- a/小鬼去哪了/关卡.xlsx
+++ b/小鬼去哪了/关卡.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
   <si>
     <t>每分钟关卡数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,148 +71,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关卡节奏设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体关卡设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>横向半弧形循环</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纵向半弧形循环</t>
-    </r>
-  </si>
-  <si>
     <t>运动方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水平直线</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水平直线</t>
   </si>
   <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>垂直直线</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垂直直线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>斜向直线</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>斜向直线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,31 +107,6 @@
   </si>
   <si>
     <t>反向，随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水平直线往复</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,116 +125,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>垂直直线往复</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垂直直线往复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>圆形循环</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圆形循环</t>
   </si>
   <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>矩形循环</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>矩形循环</t>
   </si>
   <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正三角形循环</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正三角形循环</t>
   </si>
   <si>
@@ -462,6 +206,218 @@
   </si>
   <si>
     <t>预期每回连续玩时间 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平直线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平直线往复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直直线往复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正三角形循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向半弧形循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向半弧形循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平直线初等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平直线中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平直线高等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直直线初等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直直线中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直直线高等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜向直线初等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜向直线中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜向直线高等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平直线往复初等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平直线往复中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平直线往复高等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直直线往复初等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直直线往复中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直直线往复高等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形循环初等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形循环中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形循环高等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形循环初等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形循环中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形循环高等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正三角形循环初等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正三角形循环中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正三角形循环高等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向半弧形循环初等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向半弧形循环中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向半弧形循环高等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向半弧形循环初等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向半弧形循环中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向半弧形循环高等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环主题 2种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环主题 3种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线 &amp; 往复 &amp; 循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线主题 全部3种综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往复主题 全部2种综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线 &amp; 往复 2种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线 &amp; 循环 2种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往复 &amp; 循环 2种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线主题 2种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往复主题 全部2种综合 + 1其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意2种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意3种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学综合体验关 单个变化呈现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个相同类型的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个不同类型的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,23 +442,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -543,19 +486,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,15 +783,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
@@ -861,25 +807,21 @@
       <c r="B1">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <f>60/B1</f>
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -896,19 +838,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <f>B4*3</f>
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <f>B4*6</f>
@@ -917,7 +859,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -925,7 +867,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <f>B4/B7</f>
@@ -934,7 +876,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -942,12 +884,15 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -955,7 +900,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -963,15 +908,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -983,7 +928,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <f>B16/1.5</f>
@@ -996,7 +941,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <f>INT(B16/2)</f>
@@ -1010,61 +955,482 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="str">
         <f>Sheet2!A1</f>
-        <v>1.         水平直线</v>
+        <v>水平直线</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="str">
         <f>Sheet2!A2</f>
-        <v>2.         垂直直线</v>
+        <v>垂直直线</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="str">
         <f>Sheet2!A3</f>
-        <v>3.         斜向直线</v>
+        <v>斜向直线</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="str">
         <f>Sheet2!A4</f>
-        <v>4.         水平直线往复</v>
+        <v>水平直线往复</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="str">
         <f>Sheet2!A5</f>
-        <v>5.         垂直直线往复</v>
+        <v>垂直直线往复</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="str">
         <f>Sheet2!A6</f>
-        <v>6.         圆形循环</v>
+        <v>圆形循环</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="str">
         <f>Sheet2!A7</f>
-        <v>7.         矩形循环</v>
+        <v>矩形循环</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="str">
         <f>Sheet2!A8</f>
-        <v>8.         正三角形循环</v>
+        <v>正三角形循环</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="str">
         <f>Sheet2!A9</f>
-        <v>9.         横向半弧形循环</v>
+        <v>横向半弧形循环</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="str">
         <f>Sheet2!A10</f>
-        <v>10.     纵向半弧形循环</v>
+        <v>纵向半弧形循环</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32">
+        <f>5*10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <f>SUM(B32:B63)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67">
+        <f>COMBIN(3,2)</f>
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <f>B67*5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68">
+        <f>COMBIN(3,3)</f>
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <f>B68*5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69">
+        <f>COMBIN(2,2)</f>
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <f>B69*5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70">
+        <f>1*8</f>
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <f>B70*5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71">
+        <f>COMBIN(5,2)</f>
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <f>B71*5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72">
+        <f>COMBIN(5,3)</f>
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <f>B72*5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <f>B73*5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74">
+        <f>3*5</f>
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <f>B74*5</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <f>B75*5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76">
+        <f>3*2*5</f>
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <f>B76*5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77">
+        <f>COMBIN(10,2)</f>
+        <v>45</v>
+      </c>
+      <c r="C77">
+        <f>B77*5</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78">
+        <f>COMBIN(10,3)</f>
+        <v>120</v>
+      </c>
+      <c r="C78">
+        <f>B78*5</f>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1445,7 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,54 +1459,54 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1172,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -1180,19 +1546,19 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -1200,19 +1566,19 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -1220,19 +1586,19 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1240,19 +1606,19 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1260,19 +1626,19 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1280,19 +1646,19 @@
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1300,19 +1666,19 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1320,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1340,19 +1706,19 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1360,19 +1726,19 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1380,19 +1746,19 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1400,19 +1766,19 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1420,19 +1786,19 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K26" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1440,19 +1806,19 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1460,19 +1826,19 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -1480,7 +1846,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -1508,7 +1874,7 @@
         <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1536,7 +1902,7 @@
         <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1564,7 +1930,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -1592,7 +1958,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -1620,7 +1986,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -1648,7 +2014,7 @@
         <v>46</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">

--- a/小鬼去哪了/关卡.xlsx
+++ b/小鬼去哪了/关卡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="13920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="13920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1286,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <f>B67*5</f>
+        <f t="shared" ref="C67:C78" si="0">B67*5</f>
         <v>15</v>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <f>B68*5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <f>B69*5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <f>B70*5</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <f>B71*5</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <f>B72*5</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="C73">
-        <f>B73*5</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>15</v>
       </c>
       <c r="C74">
-        <f>B74*5</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <f>B75*5</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
         <v>30</v>
       </c>
       <c r="C76">
-        <f>B76*5</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
         <v>45</v>
       </c>
       <c r="C77">
-        <f>B77*5</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
         <v>120</v>
       </c>
       <c r="C78">
-        <f>B78*5</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/小鬼去哪了/关卡.xlsx
+++ b/小鬼去哪了/关卡.xlsx
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
